--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB72F3D7-BFDE-4546-A6EF-290D7D16F224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418CB90-80EB-49AE-8219-A18F0DFA4639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="36" windowWidth="17244" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate ASC,BatchNo ASC,MediaSeq ASC,MediaSlipNo ASC,AcBookCode ASC,Seq ASC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DeptCode</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -433,6 +429,10 @@
   <si>
     <t>BatchNo</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaSlipNo ASC,Seq ASC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1201,10 +1201,10 @@
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
@@ -1311,17 +1311,17 @@
         <v>32</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="25">
         <v>3</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1332,17 +1332,17 @@
         <v>38</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="25">
         <v>12</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1353,17 +1353,17 @@
         <v>24</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1374,10 +1374,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="25">
         <v>8</v>
@@ -1390,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="E13" s="45">
         <v>2</v>
@@ -1409,20 +1409,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>98</v>
-      </c>
       <c r="D14" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="45">
         <v>3</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1433,10 +1433,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="25">
         <v>11</v>
@@ -1452,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="25">
         <v>5</v>
@@ -1468,13 +1468,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="25">
         <v>6</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1511,10 +1511,10 @@
         <v>39</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="25">
         <v>14</v>
@@ -1532,10 +1532,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="25">
         <v>80</v>
@@ -1551,10 +1551,10 @@
         <v>42</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="25">
         <v>15</v>
@@ -1570,10 +1570,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="25">
         <v>2</v>
@@ -1586,13 +1586,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="22">
         <v>10</v>
@@ -1605,13 +1605,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="35">
         <v>12</v>
@@ -1624,13 +1624,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="25">
         <v>2</v>
@@ -1646,17 +1646,17 @@
         <v>22</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="25">
         <v>3</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -1664,20 +1664,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="25">
         <v>3</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="33" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1685,20 +1685,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="25">
         <v>6</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -1706,20 +1706,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="25">
         <v>2</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="26" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1727,13 +1727,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="25">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1750,13 +1750,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="25">
         <v>10</v>
@@ -1765,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1773,13 +1773,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="25">
         <v>3</v>
@@ -1788,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1796,20 +1796,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="25">
         <v>9</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1898,7 +1898,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1928,7 +1928,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1939,18 +1939,18 @@
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418CB90-80EB-49AE-8219-A18F0DFA4639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93626CD0-026A-4D43-B551-A3CE511DE14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate = ,AND BatchNo = ,AND MediaSeq =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>findMediaSeq</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -207,10 +203,6 @@
   </si>
   <si>
     <t>findMediaSeqFirst</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate ASC,BatchNo ASC,MediaSeq DESC</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -371,10 +363,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>以相同傳票號碼編立流水號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>傳票批號</t>
   </si>
   <si>
@@ -386,22 +374,6 @@
   </si>
   <si>
     <t>MediaSeq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒體檔上傳序號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>同單位別、會計日期、傳票批號時，根據帳冊別代碼依序給予序號
-ROW_NUMBER() OVER (
-PARTITION BY BranchNo,AcDate,BatchNo 
-ORDER BY AcBookCode)
-*要注意重複產生傳票媒體時,應先取最後一筆序號為基數</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>F10+民國年+月份(1碼)+日期+3碼序號</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -423,15 +395,62 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate ASC,BatchNo ASC,MediaSeq ASC,MediaSlipNo ASC,AcBookCode ASC,Seq ASC,AcSubBookCode ASC</t>
+    <t>BatchNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaSlipNo ASC,Seq ASC</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BatchNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaSlipNo ASC,Seq ASC</t>
+    <t>上傳核心序號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10+民國年+月份(1碼)+日期+3碼序號
+*3碼序號，從CdGSeq取號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>以相同傳票號碼(MediaSlipNo)編立流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相關說明有二:
+1.關帳時,由L6101連動,以AcClose.CoreSeqNo放在titaVo.MediaSeq傳入
+2.上傳EBS Webservice此欄位使用於ETL批號(GROUP_ID)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*相同上傳核心序號(MediaSeq)下，
+有不同區隔帳冊(AcSubBookCode)時，
+需產生不同傳票號碼(MediaSlipNo)。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情況都是會計日期(營業日)
+僅月底提存時，會是月底日期(日曆日)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LatestFlag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為最新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND MediaSeq = ,AND LatestFlag = </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -584,8 +603,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,8 +625,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -659,6 +692,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +875,12 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1178,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1192,25 +1240,26 @@
     <col min="4" max="4" width="22.77734375" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="8" max="8" width="42.44140625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="8" t="s">
@@ -1223,20 +1272,20 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1296,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1307,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1318,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1329,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -1311,20 +1360,20 @@
         <v>32</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="25">
         <v>3</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -1332,20 +1381,23 @@
         <v>38</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="25">
         <v>12</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1353,20 +1405,21 @@
         <v>24</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1374,58 +1427,63 @@
         <v>23</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E12" s="25">
         <v>8</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>5</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="45">
         <v>2</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="45">
         <v>3</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>7</v>
       </c>
@@ -1433,10 +1491,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="25">
         <v>11</v>
@@ -1444,7 +1502,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>8</v>
       </c>
@@ -1452,10 +1510,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="25">
         <v>5</v>
@@ -1468,13 +1526,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="25">
         <v>6</v>
@@ -1500,7 +1558,7 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="37" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1511,10 +1569,10 @@
         <v>39</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E19" s="25">
         <v>14</v>
@@ -1532,10 +1590,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="25">
         <v>80</v>
@@ -1551,10 +1609,10 @@
         <v>42</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="25">
         <v>15</v>
@@ -1570,10 +1628,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="25">
         <v>2</v>
@@ -1586,13 +1644,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="22">
         <v>10</v>
@@ -1605,13 +1663,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="35">
         <v>12</v>
@@ -1624,13 +1682,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="25">
         <v>2</v>
@@ -1646,17 +1704,17 @@
         <v>22</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="25">
         <v>3</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -1664,20 +1722,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="25">
         <v>3</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="33" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1685,20 +1743,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="25">
         <v>6</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -1706,20 +1764,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="25">
         <v>2</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="26" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1727,13 +1785,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="25">
         <v>1</v>
@@ -1742,7 +1800,7 @@
         <v>21</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1750,13 +1808,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="25">
         <v>10</v>
@@ -1765,7 +1823,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1773,13 +1831,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="25">
         <v>3</v>
@@ -1788,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1796,88 +1854,110 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="25">
         <v>9</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="26" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>26</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="25"/>
+      <c r="B34" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="45">
+        <v>1</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="40" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>27</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="25">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="E36" s="25">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
         <v>30</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="B38" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D38" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E38" s="25">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H10:H14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
@@ -1898,7 +1978,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1922,35 +2002,35 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93626CD0-026A-4D43-B551-A3CE511DE14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012216E-CA5E-46EE-9C0D-45A46843253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -453,12 +454,52 @@
     <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND MediaSeq = ,AND LatestFlag = </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Stored Procedure Name</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L7_SlipMedia_Upd</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tbsdyf,  String empNo, int acDate, int batchNo</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票號碼回寫會計明細檔</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferFlag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已傳輸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-10 智偉新增</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,BatchNo,MediaSeq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -611,6 +652,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -725,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,10 +789,10 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -757,9 +805,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,13 +816,10 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,15 +831,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -825,9 +858,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,17 +882,32 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -875,12 +920,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1226,33 +1265,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.44140625" style="7" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="5"/>
@@ -1260,76 +1299,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1348,610 +1389,634 @@
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+    <row r="9" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="20">
         <v>3</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+    <row r="10" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="20">
         <v>12</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="44" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="20">
         <v>5</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="20">
         <v>8</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="20">
         <v>2</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="20">
         <v>3</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="20">
         <v>11</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="20">
         <v>5</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="20">
         <v>6</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
         <v>10</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+    <row r="19" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="20">
         <v>14</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="20">
         <v>80</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="20">
         <v>15</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="F21" s="18"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="20">
         <v>2</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
+      <c r="F22" s="18"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>15</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="14">
         <v>10</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="F23" s="18"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>16</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="29">
         <v>12</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>17</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="20">
         <v>2</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="F25" s="18"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
         <v>18</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="20">
         <v>3</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="37" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A27" s="42">
+    <row r="27" spans="1:7" s="21" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>19</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="20">
         <v>3</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="37" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+    <row r="28" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
         <v>20</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="20">
         <v>6</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="41" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+    <row r="29" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
         <v>21</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="20">
         <v>2</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="40" t="s">
+      <c r="F29" s="18"/>
+      <c r="G29" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+    <row r="30" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>22</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="20">
         <v>1</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42">
+    <row r="31" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
         <v>23</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="20">
         <v>10</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+    <row r="32" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
         <v>24</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="20">
         <v>3</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42">
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
         <v>25</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="20">
         <v>9</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="40" t="s">
+      <c r="F33" s="18"/>
+      <c r="G33" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="26" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+    <row r="34" spans="1:8" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
         <v>26</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="20">
         <v>1</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="40" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="42">
+    <row r="35" spans="1:8" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="37">
         <v>27</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="40">
+        <v>1</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D36" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>29</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>30</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="C38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>31</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="42">
-        <v>29</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="25"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
-        <v>30</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="25">
+      <c r="E39" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2038,4 +2103,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB2FE0-7D5C-4D24-BBB4-9659B8E5381F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012216E-CA5E-46EE-9C0D-45A46843253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
+    <sheet name="EBS-SUMMARY" sheetId="4" r:id="rId4"/>
+    <sheet name="EBS-JOURNAL" sheetId="5" r:id="rId5"/>
+    <sheet name="EBS-RETURN" sheetId="6" r:id="rId6"/>
+    <sheet name="EBS-ERROR" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_Hlk67077411" localSheetId="6">'EBS-ERROR'!$A$2</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="371">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -108,10 +114,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Seq</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -207,14 +209,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SlipMedia2022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳票媒體檔2022年格式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>帳冊別</t>
   </si>
   <si>
@@ -304,10 +298,6 @@
   <si>
     <t>000:全公司
 300:OIU全公司</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTD:台幣(NT)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -348,10 +338,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>預留欄位，各系統暫不需提供資料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>核心(團終養)於IFRS17準則下需提供，其他系統不用提供(空值)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -360,10 +346,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>暫訂作法為IFRS4準則下比照「部門代號」欄位提供，但現行提供通路單位(2碼)者需對應回6碼的單位代號；IFRS17準則下提供規則待訂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>傳票批號</t>
   </si>
   <si>
@@ -388,11 +370,6 @@
   <si>
     <t>D:借
 C:貸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:IFRS4
-2:IFRS17</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -446,37 +423,32 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Y:是
-N:否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND MediaSeq = ,AND LatestFlag = </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Stored Procedure Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Parameter</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Usp_L7_SlipMedia_Upd</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>int tbsdyf,  String empNo, int acDate, int batchNo</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>傳票號碼回寫會計明細檔</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>TransferFlag</t>
@@ -492,14 +464,995 @@
   </si>
   <si>
     <t>AcDate,BatchNo,MediaSeq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorMsg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回應錯誤代碼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回應錯誤訊息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>參數</t>
+  </si>
+  <si>
+    <t>類型</t>
+  </si>
+  <si>
+    <t>必輸</t>
+  </si>
+  <si>
+    <t>In/Out</t>
+  </si>
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>P_SUMMARY_TBL</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>傳票匯總訊息，詳細欄位如下：</t>
+  </si>
+  <si>
+    <t>└ GROUP_ID</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>1.ETL批號(匯出日期YYYYMMDD+3位流水號)</t>
+  </si>
+  <si>
+    <t>2.每次呼叫WS僅一個批號</t>
+  </si>
+  <si>
+    <t>└ BATCH_DATE</t>
+  </si>
+  <si>
+    <t>Varchar2(8）</t>
+  </si>
+  <si>
+    <t>批次匯出日期（YYYYMMDD）</t>
+  </si>
+  <si>
+    <t>└ JE_SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>Varchar2(2）</t>
+  </si>
+  <si>
+    <r>
+      <t>系統來源別</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(名稱限八個中文字)</t>
+    </r>
+  </si>
+  <si>
+    <t>PL:壽險核心系統</t>
+  </si>
+  <si>
+    <t>BE:預算暨費用系統</t>
+  </si>
+  <si>
+    <t>RP:不動產系統</t>
+  </si>
+  <si>
+    <t>PA:動產系統</t>
+  </si>
+  <si>
+    <t>LE:IFRS16 租賃系統</t>
+  </si>
+  <si>
+    <t>IA:國內投資帳務系統</t>
+  </si>
+  <si>
+    <t>IA:國內帳務-資金課</t>
+  </si>
+  <si>
+    <t>IB:國內帳務-資運課</t>
+  </si>
+  <si>
+    <t>IC:國內帳務-財管課</t>
+  </si>
+  <si>
+    <t>ID:國內帳務-投會課</t>
+  </si>
+  <si>
+    <t>EA:國外投資帳務系統</t>
+  </si>
+  <si>
+    <t>CE:IFRS17計算引擎</t>
+  </si>
+  <si>
+    <t>└ TOTAL_LINES</t>
+  </si>
+  <si>
+    <t>該批號下各幣別傳票明細總行數</t>
+  </si>
+  <si>
+    <t>└ CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(3）</t>
+  </si>
+  <si>
+    <t>└ TOTAL_AMOUNT</t>
+  </si>
+  <si>
+    <t>該批號下各幣別傳票借方總金額</t>
+  </si>
+  <si>
+    <t>X_RETURN_STATUS</t>
+  </si>
+  <si>
+    <t>Varchar2(1)</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>X_ERROR_DETAILS_TBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>返回詳細錯誤訊息，僅當失敗時提供。</t>
+  </si>
+  <si>
+    <t>單批批號，批次匯出日期YYYYMMDD+3位流水號</t>
+  </si>
+  <si>
+    <t>└ JOURNAL_NAME</t>
+  </si>
+  <si>
+    <t>Varchar2(100)</t>
+  </si>
+  <si>
+    <t>└ JE_LINE_NUM</t>
+  </si>
+  <si>
+    <t>Number(5)</t>
+  </si>
+  <si>
+    <t>序號。</t>
+  </si>
+  <si>
+    <t>若有值，表示明細層級資訊錯誤；</t>
+  </si>
+  <si>
+    <t>若為空表示該張傳票資訊錯誤。</t>
+  </si>
+  <si>
+    <t>└ ERROR_CODE</t>
+  </si>
+  <si>
+    <t>返回錯誤代號</t>
+  </si>
+  <si>
+    <t>└ ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>Varchar2(2000)</t>
+  </si>
+  <si>
+    <t>返回錯誤訊息，僅供參考用。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Response之X_ERROR_DETAILS_TBL欄位說明</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤代號</t>
+  </si>
+  <si>
+    <t>錯誤訊息</t>
+  </si>
+  <si>
+    <t>E00</t>
+  </si>
+  <si>
+    <t>單批次傳票行數超限</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>批次匯出日期為空或者格式不正確</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>來源系統為空或者不是約定的代碼</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>幣別為空或者不是系統有效的幣別</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>帳冊別為空或者不是系統有效的帳冊別</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>會計準則類型為空或者不是有效類型</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>傳票號碼為空或者長度不正確，統一規則12位號碼</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>傳票日期為空或者格式不正確</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>區隔帳代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>科目代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>子目代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>成本單位代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>通路代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>IFRS17群組代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>關聯方代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>單位代號為空或者不是有效值</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>子目代號不符合會計科目之子目旗標的限定規則</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>成本單位代號不符合會計科目之單位旗標的限定規則</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>單位代號不符合會計科目之單位旗標的限定規則</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>通路代號不符合會計科目之通路旗標的限定規則</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>傳票行銷帳碼不符合會計科目之銷帳碼旗標的限定規則</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>同一傳票下出現多個帳冊別</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>同一傳票下出現多個傳票日期</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>同一傳票下出現多個作業者</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>同一傳票下出現多個區隔帳代號</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>同一傳票下出現多個幣別</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>同一傳票下出現多個會計準則類型</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>傳票日期晚於系統當前日期後10天</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>傳票借貸總額不平衡</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>群組識別號下該幣別傳票總金額與明細行不匹配</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>群組識別號下傳票總行數與明細行數不匹配</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>總帳中已經存在一張同名且導入成功的傳票</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>暫存表存在一張正在匯入的傳票</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>暫存表存在一張最新版本的傳票</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
+    <t>傳票日期所在總帳期間未處於開啟”或者“預開”的狀態</t>
+  </si>
+  <si>
+    <t>E35</t>
+  </si>
+  <si>
+    <t>傳票日期前一天未設定每日匯率</t>
+  </si>
+  <si>
+    <t>E36</t>
+  </si>
+  <si>
+    <t>映射科目未正確設定</t>
+  </si>
+  <si>
+    <t>E37</t>
+  </si>
+  <si>
+    <t>帳戶組合獲取失敗</t>
+  </si>
+  <si>
+    <t>E38</t>
+  </si>
+  <si>
+    <t>標準傳票匯入程式異常</t>
+  </si>
+  <si>
+    <t>E39</t>
+  </si>
+  <si>
+    <t>入帳金額為空</t>
+  </si>
+  <si>
+    <t>E40</t>
+  </si>
+  <si>
+    <t>同傳票名稱的平行帳傳票校驗出錯</t>
+  </si>
+  <si>
+    <t>E41</t>
+  </si>
+  <si>
+    <t>同傳票名稱的平行帳傳票匯入失敗，需要刪除後再次匯入</t>
+  </si>
+  <si>
+    <t>E99</t>
+  </si>
+  <si>
+    <t>系統未知異常</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Request之 P_JOURNAL_TBL欄位說明</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_JOURNAL_TBL</t>
+  </si>
+  <si>
+    <t>傳票資料，詳細欄位如下：</t>
+  </si>
+  <si>
+    <t>ETL批號</t>
+  </si>
+  <si>
+    <t>系統來源別</t>
+  </si>
+  <si>
+    <t>└ USER_LEDGER_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(3)</t>
+  </si>
+  <si>
+    <t>└ CONVENTION</t>
+  </si>
+  <si>
+    <t>Number(1)</t>
+  </si>
+  <si>
+    <t>會計準則類型:</t>
+  </si>
+  <si>
+    <t>2: IFRS17</t>
+  </si>
+  <si>
+    <t>無兩套帳者放空值，如電文範例</t>
+  </si>
+  <si>
+    <t>Varchar2(12)</t>
+  </si>
+  <si>
+    <t>該ETL批號裡可允許傳輸多張傳票號碼</t>
+  </si>
+  <si>
+    <t>└ ISSUED_BY</t>
+  </si>
+  <si>
+    <t>Varchar2(40)</t>
+  </si>
+  <si>
+    <t>作業者，員工編號-員工姓名</t>
+  </si>
+  <si>
+    <t>└ ACCOUNTING_DATE</t>
+  </si>
+  <si>
+    <t>Varchar2(8)</t>
+  </si>
+  <si>
+    <t>傳票日期(YYYYMMDD)</t>
+  </si>
+  <si>
+    <t>序號</t>
+  </si>
+  <si>
+    <t>└ SEGREGATE_CODE</t>
+  </si>
+  <si>
+    <t>└ ACCOUNT_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(11)</t>
+  </si>
+  <si>
+    <t>└ SUBACCOUNT_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(5)</t>
+  </si>
+  <si>
+    <t>└ COSTCENTER_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(6)</t>
+  </si>
+  <si>
+    <t>成本單位代號，若無成本單位需放000000</t>
+  </si>
+  <si>
+    <t>└ CHANNEL_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(2)</t>
+  </si>
+  <si>
+    <t>通路代號，若無通路代號需放00</t>
+  </si>
+  <si>
+    <t>└ IFRS17_GROUP_CODE</t>
+  </si>
+  <si>
+    <r>
+      <t>Varchar2(</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="8.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IFRS17群組代號，若無IFRS17群組代號需放000000000</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <t>└ INTERCOMPANY_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(4)</t>
+  </si>
+  <si>
+    <t>關聯方代號，若無關聯方代號需放999</t>
+  </si>
+  <si>
+    <t>└ DEPARTMENT_CODE</t>
+  </si>
+  <si>
+    <t>單位代號，若無單位代號需放000000</t>
+  </si>
+  <si>
+    <t>└ ENTERED_AMOUNT</t>
+  </si>
+  <si>
+    <t>└ LINE_DESC</t>
+  </si>
+  <si>
+    <t>Varchar2(80)</t>
+  </si>
+  <si>
+    <t>└ WRITE_OFF_CODE</t>
+  </si>
+  <si>
+    <t>Varchar2(15)</t>
+  </si>
+  <si>
+    <t>└ RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>Varchar2(10)</t>
+  </si>
+  <si>
+    <t>關係人</t>
+  </si>
+  <si>
+    <t>1.Request之P_SUMMARY_TBL欄位說明</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Response之X_RETURN_STATUS欄位說明</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate傳票日期(西元,8) + MediaSeq上傳核心序號(3)</t>
+  </si>
+  <si>
+    <t>對應SlipMedia2022檔(傳票媒體檔2022年格式)欄位說明</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LN:放款帳務系統</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LN:放款帳務系統</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyCode幣別 NTD:台幣</t>
+  </si>
+  <si>
+    <t>加總 if (DbCr借貸別=D:借) TxAmt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>加總明細筆數</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate傳票日期(國曆前補零)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate傳票日期(國曆前補零)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode帳冊別 000:全公司</t>
+  </si>
+  <si>
+    <t>1: IFRS4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: IFRS4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaSlipNo傳票號碼</t>
+  </si>
+  <si>
+    <t>CurrencyCode幣別</t>
+  </si>
+  <si>
+    <t>執行L7400經辦員編</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq傳票明細序號</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSubBookCode區隔帳冊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCode科目代號</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>子目代號，若無子目需放00000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSubCode子目代號，無子目放00000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10H000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000000</t>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode部門代號</t>
+  </si>
+  <si>
+    <t>10H000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL
+暫訂作法為IFRS4準則下比照「部門代號」欄位提供，但現行提供通路單位(2碼)者需對應回6碼的單位代號；IFRS17準則下提供規則待訂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL
+1:IFRS4
+2:IFRS17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL
+預留欄位，各系統暫不需提供資料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL
+預留欄位，各系統暫不需提供資料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是 N:否
+取消關帳再關帳時，原同批號未上傳之資料更新為N，新寫入為Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是 N:否
+新寫入為N，L7400(總帳傳票資料傳輸)整批傳送成功時更新為Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7400(總帳傳票資料傳輸)傳送失敗時更新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7400(總帳傳票資料傳輸)傳送失敗時更新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>科子細目名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTD:台幣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAmt金額，借方為正數,貸方為負數</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>總帳銷帳碼科目時放入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1個空白</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正數</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipRmk傳票摘要</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceiveCode 會計科目銷帳碼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>S代表處理成功，該批號資料將寫入會計資訊系統。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>E代表處理失敗，該批號資料不會寫入會計資訊系統。若為E會回傳另一個錯誤明細檔。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回此ETL批號的處理狀態。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>S代表處理成功，TransferFlag(是否已傳輸)更新為Y</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>└ JE_LINE_NUM</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>=Seq傳票明細序號</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCode回應錯誤代碼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorMsg回應錯誤訊息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipMedia2022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>總帳傳票媒體檔2022年格式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,50 +1551,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
@@ -659,8 +1571,106 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.5"/>
+      <color rgb="FF008080"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +1689,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -749,8 +1781,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,8 +2035,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,51 +2103,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -897,16 +2118,163 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,15 +2289,40 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="5" xr:uid="{D0E33769-9393-40D5-9DFA-48388BCDC19F}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{5D6C700A-9F0C-4308-99B6-71D4883CFBCD}"/>
-    <cellStyle name="一般 2 3 2" xfId="6" xr:uid="{CA4BC916-5CC7-46B8-B1C6-D2FF79D1F947}"/>
-    <cellStyle name="一般 2 4" xfId="4" xr:uid="{F6651F27-C024-44A1-A666-85EC7045AB62}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="5"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2 3 2" xfId="6"/>
+    <cellStyle name="一般 2 4" xfId="4"/>
+    <cellStyle name="超連結" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,23 +2413,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1072,23 +2448,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1264,11 +2623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1276,7 +2635,7 @@
     <col min="1" max="1" width="5.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="19" customWidth="1"/>
     <col min="5" max="6" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.44140625" style="7" customWidth="1"/>
@@ -1284,23 +2643,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>49</v>
+        <v>370</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1312,12 +2671,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="5"/>
@@ -1325,10 +2684,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -1336,12 +2695,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1349,10 +2708,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1360,10 +2719,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="4"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1398,562 +2757,578 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="20">
         <v>3</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>2</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="29">
+        <v>12</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <v>3</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="29">
+        <v>5</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" spans="1:8" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <v>4</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="29">
+        <v>8</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="29">
+        <v>2</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="29">
+        <v>3</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="29">
+        <v>11</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="29">
+        <v>5</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
+        <v>9</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="29">
+        <v>6</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <v>10</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="36">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
+        <v>11</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="29">
+        <v>14</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
+        <v>12</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="29">
+        <v>80</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
+        <v>13</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="29">
+        <v>15</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="74" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <v>14</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="26">
+        <v>10</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <v>16</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="36">
+        <v>12</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
+        <v>17</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="29">
+        <v>2</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="29">
+        <v>3</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="34" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
+        <v>19</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="29">
+        <v>3</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="34" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
+        <v>20</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="29">
+        <v>6</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="75" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
+        <v>21</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="34" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
+        <v>22</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="29">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="26">
+        <v>23</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>2</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="C31" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="29">
+        <v>10</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
+        <v>24</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="29">
+        <v>3</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>25</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="29">
+        <v>9</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
+        <v>26</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="29">
+        <v>1</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="76" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="26">
+        <v>27</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="20">
-        <v>5</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>4</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="20">
-        <v>8</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>5</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="20">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>7</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="20">
-        <v>11</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>8</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="20">
-        <v>5</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>9</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="20">
-        <v>6</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>10</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="E35" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>11</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="20">
-        <v>14</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>12</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="20">
-        <v>80</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>13</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="20">
-        <v>15</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>14</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="20">
-        <v>2</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>15</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="14">
-        <v>10</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>16</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="29">
-        <v>12</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>17</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="20">
-        <v>2</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>18</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="20">
-        <v>3</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="21" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>19</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="20">
-        <v>3</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>20</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="20">
-        <v>6</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
-        <v>21</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="20">
-        <v>2</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
-        <v>22</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>23</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="20">
-        <v>10</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
-        <v>24</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="20">
-        <v>3</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
-        <v>25</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="20">
-        <v>9</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
-        <v>26</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="20">
-        <v>1</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
-        <v>27</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="40">
-        <v>1</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>119</v>
+      <c r="F35" s="30"/>
+      <c r="G35" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1964,7 +3339,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>20</v>
@@ -1976,10 +3351,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>12</v>
@@ -1993,10 +3368,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>20</v>
@@ -2008,16 +3383,58 @@
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="20">
         <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>32</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="25">
+        <v>3</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>33</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="73" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +3455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2067,35 +3484,35 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB2FE0-7D5C-4D24-BBB4-9659B8E5381F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,29 +3538,1703 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>113</v>
+      <c r="A1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" style="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="162.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48">
+        <v>1</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="83">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="85"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="83">
+        <v>1.3</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="84"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="84"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="84"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="85"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="48">
+        <v>1.4</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="55">
+        <v>1.6</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="C9:C22"/>
+    <mergeCell ref="D9:D22"/>
+    <mergeCell ref="E9:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" style="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="58">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="58">
+        <v>2.4</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="85"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="83">
+        <v>2.6</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="85"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58">
+        <v>2.7</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58">
+        <v>2.8</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58">
+        <v>2.9</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="58">
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58">
+        <v>2.11</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="58">
+        <v>2.12</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="58">
+        <v>2.13</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="58">
+        <v>2.14</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="58">
+        <v>2.15</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="58">
+        <v>2.16</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="58">
+        <v>2.17</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="58">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="58">
+        <v>2.19</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="58">
+        <v>2.21</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="55">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="71.33203125" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="83">
+        <v>3</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="84"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" style="69" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58">
+        <v>4</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58">
+        <v>4.2</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="83">
+        <v>4.3</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="85"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="58">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4A9CE-F9C1-4B89-96AF-655B9279437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
   <definedNames>
     <definedName name="_Hlk67077411" localSheetId="6">'EBS-ERROR'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1207,9 +1208,6 @@
     <t>Varchar2(15)</t>
   </si>
   <si>
-    <t>└ RELATIONSHIP</t>
-  </si>
-  <si>
     <t>Varchar2(10)</t>
   </si>
   <si>
@@ -1279,10 +1277,6 @@
     <t>CurrencyCode幣別</t>
   </si>
   <si>
-    <t>執行L7400經辦員編</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Seq傳票明細序號</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1322,17 +1316,6 @@
   </si>
   <si>
     <t>10H000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL
-暫訂作法為IFRS4準則下比照「部門代號」欄位提供，但現行提供通路單位(2碼)者需對應回6碼的單位代號；IFRS17準則下提供規則待訂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL
-1:IFRS4
-2:IFRS17</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1446,12 +1429,31 @@
   <si>
     <t>總帳傳票媒體檔2022年格式</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行L7400經辦員編(LastUpdateEmpNo)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>└ RELATIONSHIP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+1:IFRS4
+2:IFRS17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10H000
+暫訂作法為IFRS4準則下比照「部門代號」欄位提供，但現行提供通路單位(2碼)者需對應回6碼的單位代號；IFRS17準則下提供規則待訂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2039,7 +2041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2118,52 +2120,31 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2214,9 +2195,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2250,7 +2228,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2262,19 +2240,19 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,12 +2294,12 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="5"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 3 2" xfId="6"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="超連結" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2338,9 +2316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2378,9 +2356,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2415,7 +2393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2450,7 +2428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2623,11 +2601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2643,23 +2621,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2671,10 +2649,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="11" t="s">
         <v>73</v>
       </c>
@@ -2684,10 +2662,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -2695,10 +2673,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="11" t="s">
         <v>112</v>
       </c>
@@ -2708,10 +2686,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -2719,10 +2697,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="81"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="4"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -2773,561 +2751,561 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+    <row r="10" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="20">
         <v>12</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="70" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="20">
         <v>5</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="78"/>
-    </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="20">
         <v>8</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="20">
         <v>2</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="20">
         <v>3</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="78"/>
-    </row>
-    <row r="15" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="H14" s="70"/>
+    </row>
+    <row r="15" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="20">
         <v>11</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="20">
         <v>5</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>9</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="20">
         <v>6</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>10</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="20">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>12</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="20">
+        <v>80</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="20">
+        <v>15</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>15</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="14">
+        <v>10</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>16</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="29">
+        <v>12</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="20">
+        <v>3</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="27" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>19</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="20">
+        <v>3</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="27" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>20</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="20">
+        <v>6</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="20">
+        <v>2</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="27" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>22</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>23</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="20">
+        <v>10</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>10</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="28" t="s">
+    <row r="32" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>24</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="20">
+        <v>3</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>25</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="20">
+        <v>9</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>26</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="68" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>27</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E35" s="20">
         <v>1</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
-        <v>11</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="29">
-        <v>14</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <v>12</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="29">
-        <v>80</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>13</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="29">
-        <v>15</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="74" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
-        <v>14</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="29">
-        <v>2</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="35" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
-        <v>15</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="26">
-        <v>10</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="74" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
-        <v>16</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="36">
-        <v>12</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="37" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
-        <v>17</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="29">
-        <v>2</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="37" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
-        <v>18</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="29">
-        <v>3</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="37" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
-        <v>19</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="29">
-        <v>3</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="34" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26">
-        <v>20</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="29">
-        <v>6</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="75" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
-        <v>21</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="29">
-        <v>2</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="34" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
-        <v>22</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="29">
-        <v>1</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="41" t="s">
+      <c r="F35" s="18"/>
+      <c r="G35" s="68" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
-        <v>23</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="29">
-        <v>10</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>24</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="29">
-        <v>3</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
-        <v>25</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="29">
-        <v>9</v>
-      </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
-        <v>26</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="29">
-        <v>1</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="76" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="34" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
-        <v>27</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="29">
-        <v>1</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3395,14 +3373,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>32</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="35" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -3412,18 +3390,18 @@
         <v>3</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="73" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="35" t="s">
         <v>116</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -3433,8 +3411,8 @@
         <v>2000</v>
       </c>
       <c r="F41" s="22"/>
-      <c r="G41" s="73" t="s">
-        <v>348</v>
+      <c r="G41" s="65" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3523,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3566,7 +3544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3580,364 +3558,364 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="58.44140625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="69" t="s">
+      <c r="A1" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="162.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="76"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="77"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="75">
+        <v>1.3</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="76"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="76"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="45" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" ht="162.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48">
-        <v>1</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="G12" s="61" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="76"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="76"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="76"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="76"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="76"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="76"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="76"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="76"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="76"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="77"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="41">
+        <v>1.4</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E23" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="83">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="86" t="s">
+      <c r="F23" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="48">
+        <v>1.6</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D25" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E25" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="85"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48">
-        <v>1.2</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="85"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="48">
-        <v>1.4</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="70" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="69" t="s">
+      <c r="F25" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="61" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="55">
-        <v>1.6</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="C9:C22"/>
+    <mergeCell ref="D9:D22"/>
+    <mergeCell ref="E9:E22"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B22"/>
-    <mergeCell ref="C9:C22"/>
-    <mergeCell ref="D9:D22"/>
-    <mergeCell ref="E9:E22"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3946,11 +3924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3960,614 +3938,614 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="43.5546875" customWidth="1"/>
-    <col min="7" max="7" width="58.44140625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="69" t="s">
-        <v>317</v>
+      <c r="G1" s="61" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="44" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58">
+      <c r="A5" s="41">
         <v>2.1</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>316</v>
+      <c r="G5" s="61" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58">
+      <c r="A6" s="41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="69" t="s">
-        <v>323</v>
+      <c r="G6" s="61" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="58">
+      <c r="A7" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="69" t="s">
-        <v>319</v>
+      <c r="G7" s="61" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58">
+      <c r="A8" s="41">
         <v>2.4</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="76"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="45" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="83">
-        <v>2.5</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86" t="s">
+      <c r="G10" s="63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="58" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="77"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="75">
+        <v>2.6</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="G10" s="71" t="s">
+      <c r="F13" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="66" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="67" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="83">
-        <v>2.6</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="86" t="s">
+    <row r="14" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="41">
+        <v>2.7</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E15" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="69" t="s">
+      <c r="F15" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="85"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="51" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58">
-        <v>2.7</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="49" t="s">
+    <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41">
+        <v>2.8</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41">
+        <v>2.9</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41">
+        <v>2.11</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D19" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E19" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58">
-        <v>2.8</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="49" t="s">
+      <c r="F19" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41">
+        <v>2.12</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E20" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58">
-        <v>2.9</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="49" t="s">
+      <c r="F20" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="41">
+        <v>2.13</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E21" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="69" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="58">
-        <v>2.1</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="49" t="s">
+      <c r="F21" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41">
+        <v>2.14</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E22" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="69" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58">
-        <v>2.11</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="49" t="s">
+      <c r="F22" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="41">
+        <v>2.15</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E23" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58">
-        <v>2.12</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="49" t="s">
+      <c r="F23" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="41">
+        <v>2.16</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E24" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="58">
-        <v>2.13</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="49" t="s">
+      <c r="F24" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="41">
+        <v>2.17</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E25" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="G21" s="69" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="58">
-        <v>2.14</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="49" t="s">
+      <c r="F25" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="41">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="41">
+        <v>2.19</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E27" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="58">
-        <v>2.15</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="49" t="s">
+      <c r="F27" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="58">
-        <v>2.16</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="49" t="s">
+      <c r="F28" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="41">
+        <v>2.21</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="58">
-        <v>2.17</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="49" t="s">
+      <c r="F29" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="48">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58">
-        <v>2.19</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="58">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="58">
-        <v>2.21</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="55">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="56" t="s">
+      <c r="F30" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>360</v>
+      <c r="G30" s="64" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4576,7 +4554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4594,80 +4572,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>317</v>
+      <c r="A1" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="83">
+      <c r="A4" s="75">
         <v>3</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>363</v>
+      <c r="F4" s="45" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="52" t="s">
-        <v>361</v>
+      <c r="A5" s="76"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="45" t="s">
+        <v>357</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="57" t="s">
-        <v>362</v>
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="50" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4685,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4697,532 +4675,532 @@
     <col min="2" max="2" width="33.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="31.21875" customWidth="1"/>
-    <col min="7" max="7" width="60.44140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="69" t="s">
-        <v>317</v>
+      <c r="G1" s="61" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58">
+      <c r="A4" s="41">
         <v>4</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="44" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58">
+      <c r="A5" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="44" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58">
+      <c r="A6" s="41">
         <v>4.2</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="83">
+      <c r="A7" s="75">
         <v>4.3</v>
       </c>
-      <c r="B7" s="86" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="72" t="s">
-        <v>366</v>
+      <c r="G7" s="64" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="52" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="45" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="85"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="51" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="44" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="58">
+      <c r="A10" s="41">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="70" t="s">
-        <v>367</v>
+      <c r="G10" s="62" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55">
+      <c r="A11" s="48">
         <v>4.5</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="70" t="s">
-        <v>368</v>
+      <c r="G11" s="62" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="53" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="55" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="55" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="55" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="55" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="55" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="55" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="55" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="55" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="55" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="55" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="55" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="55" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="55" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="55" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="55" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="55" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="55" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="55" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="55" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="55" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="55" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="55" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="55" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="55" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="55" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="55" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="55" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="55" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="55" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="55" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="55" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="55" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="55" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="55" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="57" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="55" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="55" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="55" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="55" t="s">
         <v>264</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4A9CE-F9C1-4B89-96AF-655B9279437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1077E1C6-E614-4D68-9176-2F55E8E502B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1448,6 +1444,9 @@
     <t>10H000
 暫訂作法為IFRS4準則下比照「部門代號」欄位提供，但現行提供通路單位(2碼)者需對應回6碼的單位代號；IFRS17準則下提供規則待訂</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -2604,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2626,10 +2625,10 @@
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>365</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2654,7 +2653,7 @@
       </c>
       <c r="B3" s="74"/>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="5"/>
@@ -2678,7 +2677,7 @@
       </c>
       <c r="B5" s="74"/>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -2735,20 +2734,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="E9" s="20">
         <v>3</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2756,23 +2755,23 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="20">
         <v>12</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2780,20 +2779,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="20">
         <v>5</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="70"/>
     </row>
@@ -2802,20 +2801,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="20">
         <v>8</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="70"/>
     </row>
@@ -2824,13 +2823,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="E13" s="20">
         <v>2</v>
@@ -2844,20 +2843,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="20">
         <v>3</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="70"/>
     </row>
@@ -2866,13 +2865,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="20">
         <v>11</v>
@@ -2885,13 +2884,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="20">
         <v>5</v>
@@ -2904,20 +2903,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="20">
         <v>6</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2925,10 +2924,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>12</v>
@@ -2938,7 +2937,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -2946,22 +2945,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="20">
         <v>14</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2969,20 +2968,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="20">
         <v>80</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2990,20 +2989,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="20">
         <v>15</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3011,20 +3010,20 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="20">
         <v>2</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3032,20 +3031,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="14">
         <v>10</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3053,20 +3052,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="29">
         <v>12</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3074,20 +3073,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="20">
         <v>2</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3095,20 +3094,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="20">
         <v>3</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="27" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -3116,20 +3115,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="20">
         <v>3</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="27" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -3137,20 +3136,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="20">
         <v>6</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3158,20 +3157,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="20">
         <v>2</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="27" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -3179,22 +3178,22 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="20">
         <v>1</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -3202,22 +3201,22 @@
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="20">
         <v>10</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -3225,22 +3224,22 @@
         <v>24</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="20">
         <v>3</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3248,20 +3247,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="20">
         <v>9</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -3269,20 +3268,20 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="20">
         <v>1</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -3290,10 +3289,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>12</v>
@@ -3303,10 +3302,10 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3317,10 +3316,10 @@
         <v>19</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="E36" s="20"/>
     </row>
@@ -3329,10 +3328,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>12</v>
@@ -3346,13 +3345,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="D38" s="19" t="s">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="E38" s="20"/>
     </row>
@@ -3361,10 +3360,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>12</v>
@@ -3378,20 +3377,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="25">
         <v>3</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -3399,20 +3398,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="E41" s="22">
         <v>2000</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3462,35 +3461,35 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3517,24 +3516,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3563,30 +3562,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>122</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3602,19 +3601,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="44" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3622,22 +3621,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="D5" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>131</v>
-      </c>
       <c r="G5" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3647,7 +3646,7 @@
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
       <c r="F6" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3663,22 +3662,22 @@
         <v>1.2</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="D8" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>135</v>
-      </c>
       <c r="G8" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3686,19 +3685,19 @@
         <v>1.3</v>
       </c>
       <c r="B9" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="D9" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3708,7 +3707,7 @@
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3718,7 +3717,7 @@
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
       <c r="F11" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3728,10 +3727,10 @@
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
       <c r="F12" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>317</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3741,7 +3740,7 @@
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
       <c r="F13" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3751,7 +3750,7 @@
       <c r="D14" s="79"/>
       <c r="E14" s="79"/>
       <c r="F14" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3761,7 +3760,7 @@
       <c r="D15" s="79"/>
       <c r="E15" s="79"/>
       <c r="F15" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3771,7 +3770,7 @@
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
       <c r="F16" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3781,7 +3780,7 @@
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
       <c r="F17" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3791,7 +3790,7 @@
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
       <c r="F18" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3801,7 +3800,7 @@
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
       <c r="F19" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3811,7 +3810,7 @@
       <c r="D20" s="79"/>
       <c r="E20" s="79"/>
       <c r="F20" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3821,7 +3820,7 @@
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
       <c r="F21" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3831,7 +3830,7 @@
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
       <c r="F22" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3839,22 +3838,22 @@
         <v>1.4</v>
       </c>
       <c r="B23" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>152</v>
-      </c>
       <c r="G23" s="62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3862,22 +3861,22 @@
         <v>1.5</v>
       </c>
       <c r="B24" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>154</v>
-      </c>
       <c r="D24" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F24" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3885,37 +3884,37 @@
         <v>1.6</v>
       </c>
       <c r="B25" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>156</v>
-      </c>
       <c r="G25" s="61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B22"/>
     <mergeCell ref="C9:C22"/>
     <mergeCell ref="D9:D22"/>
     <mergeCell ref="E9:E22"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3943,30 +3942,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>122</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3982,19 +3981,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>266</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4002,22 +4001,22 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>130</v>
-      </c>
       <c r="D5" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F5" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4025,22 +4024,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>135</v>
-      </c>
       <c r="G6" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4048,22 +4047,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>137</v>
-      </c>
       <c r="D7" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F7" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4071,22 +4070,22 @@
         <v>2.4</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>271</v>
-      </c>
       <c r="D8" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F8" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4094,17 +4093,17 @@
         <v>2.5</v>
       </c>
       <c r="B9" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="78" t="s">
         <v>272</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>273</v>
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4114,10 +4113,10 @@
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="63" t="s">
         <v>325</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4127,7 +4126,7 @@
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
       <c r="F11" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4137,7 +4136,7 @@
       <c r="D12" s="80"/>
       <c r="E12" s="80"/>
       <c r="F12" s="59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -4145,22 +4144,22 @@
         <v>2.6</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="78" t="s">
-        <v>127</v>
-      </c>
       <c r="F13" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4170,7 +4169,7 @@
       <c r="D14" s="80"/>
       <c r="E14" s="80"/>
       <c r="F14" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4178,22 +4177,22 @@
         <v>2.7</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F15" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4201,22 +4200,22 @@
         <v>2.8</v>
       </c>
       <c r="B16" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="D16" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>281</v>
-      </c>
       <c r="G16" s="61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4224,22 +4223,22 @@
         <v>2.9</v>
       </c>
       <c r="B17" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>284</v>
-      </c>
       <c r="G17" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4247,22 +4246,22 @@
         <v>2.1</v>
       </c>
       <c r="B18" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>167</v>
-      </c>
       <c r="D18" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F18" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4270,22 +4269,22 @@
         <v>2.11</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F19" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4293,22 +4292,22 @@
         <v>2.12</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>288</v>
-      </c>
       <c r="D20" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F20" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4316,22 +4315,22 @@
         <v>2.13</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>290</v>
-      </c>
       <c r="D21" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F21" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>332</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4339,22 +4338,22 @@
         <v>2.14</v>
       </c>
       <c r="B22" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="D22" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>293</v>
-      </c>
       <c r="G22" s="69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4362,22 +4361,22 @@
         <v>2.15</v>
       </c>
       <c r="B23" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="D23" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>296</v>
-      </c>
       <c r="G23" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4385,22 +4384,22 @@
         <v>2.16</v>
       </c>
       <c r="B24" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="D24" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="D24" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>299</v>
-      </c>
       <c r="G24" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4408,22 +4407,22 @@
         <v>2.17</v>
       </c>
       <c r="B25" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="D25" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>302</v>
-      </c>
       <c r="G25" s="64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4431,20 +4430,20 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4452,22 +4451,22 @@
         <v>2.19</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>127</v>
-      </c>
       <c r="F27" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4475,20 +4474,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B28" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>306</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>307</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4496,20 +4495,20 @@
         <v>2.21</v>
       </c>
       <c r="B29" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>308</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>309</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4517,35 +4516,35 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="E9:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4573,30 +4572,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>122</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4612,17 +4611,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>157</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>158</v>
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4632,10 +4631,10 @@
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
       <c r="F5" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4645,7 +4644,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
       <c r="F6" s="50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4680,30 +4679,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>122</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4719,17 +4718,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4737,17 +4736,17 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>130</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4755,17 +4754,17 @@
         <v>4.2</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4773,20 +4772,20 @@
         <v>4.3</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -4796,7 +4795,7 @@
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
       <c r="F8" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4806,7 +4805,7 @@
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
       <c r="F9" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4814,20 +4813,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4835,373 +4834,373 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>174</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>177</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>179</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>181</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>185</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>189</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>191</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="55" t="s">
         <v>193</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="55" t="s">
         <v>195</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="55" t="s">
         <v>197</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="55" t="s">
         <v>199</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>201</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>203</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="55" t="s">
         <v>205</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>207</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="55" t="s">
         <v>209</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>211</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="55" t="s">
         <v>213</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>215</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="55" t="s">
         <v>217</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="55" t="s">
         <v>219</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="55" t="s">
         <v>221</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="55" t="s">
         <v>223</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="55" t="s">
         <v>227</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="55" t="s">
         <v>229</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="55" t="s">
         <v>231</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="55" t="s">
         <v>233</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="55" t="s">
         <v>235</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="55" t="s">
         <v>237</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="55" t="s">
         <v>239</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="55" t="s">
         <v>241</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="55" t="s">
         <v>243</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="55" t="s">
         <v>247</v>
-      </c>
-      <c r="B48" s="55" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="55" t="s">
         <v>249</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="55" t="s">
         <v>251</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="55" t="s">
         <v>253</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B52" s="57" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" s="55" t="s">
         <v>257</v>
-      </c>
-      <c r="B53" s="55" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="55" t="s">
         <v>259</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="55" t="s">
         <v>261</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="55" t="s">
         <v>263</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
